--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKKEU004-001 until DPLKKEU004-003 - Keuangan - Setup Mapping Bank Pembayaran Approve Data.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKKEU004-001 until DPLKKEU004-003 - Keuangan - Setup Mapping Bank Pembayaran Approve Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK_Merge\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89E4921-2916-4F0B-A381-C2B1465B04BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47742CD5-331B-4E78-9C6D-255E27D5848B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="42">
   <si>
     <t>RUN</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Setup Mapping Bank Pembayaran</t>
   </si>
   <si>
-    <t>BIAYA_RTGS</t>
-  </si>
-  <si>
     <t>Verifikasi dikembalikan ke Register - Mapping Bank Pembayaran</t>
   </si>
   <si>
@@ -124,42 +121,48 @@
   </si>
   <si>
     <t>DPLKKEU004-003 VERIFIKASI DIBATALKAN</t>
+  </si>
+  <si>
+    <t>Pimpinan Bagian Settlement</t>
+  </si>
+  <si>
+    <t>Diverifikasi</t>
+  </si>
+  <si>
+    <t>Dibatalkan Verifikasi</t>
+  </si>
+  <si>
+    <t>Dikembalikan Ke Register</t>
+  </si>
+  <si>
+    <t>KODE_BI_PENERIMA</t>
+  </si>
+  <si>
+    <t>016</t>
   </si>
   <si>
     <t>Username : 37370;
 Password : bni1234;
 Role : 08 : Pimpinan Bagian Settlement;
-Biaya RTGS : 6500;
+Kode BI Penerima : 016;
 Status Verifikasi : 2 : Batalkan Verifikasi;
 Keterangan : DPLKKEU004-003 VERIFIKASI DIBATALKAN</t>
-  </si>
-  <si>
-    <t>Pimpinan Bagian Settlement</t>
   </si>
   <si>
     <t>Username : 37370;
 Password : bni1234;
 Role : 08 : Pimpinan Bagian Settlement;
-Biaya RTGS : 6500;
+Kode BI Penerima : 016;
 Status Verifikasi : 1 : Setuju;
 Keterangan : DPLKKEU004-002 DATA DISETUJUI</t>
-  </si>
-  <si>
-    <t>Diverifikasi</t>
-  </si>
-  <si>
-    <t>Dibatalkan Verifikasi</t>
   </si>
   <si>
     <t>Username : 37370;
 Password : bni1234;
 Role : 08 : Pimpinan Bagian Settlement;
-Biaya RTGS : 6500;
+Kode BI Penerima : 016;
 Status Verifikasi : 0 : Kembalikan ke Register;
 Keterangan : DPLKKEU004-001 DATA DIKEMBALIKAN KE REGISTER</t>
-  </si>
-  <si>
-    <t>Dikembalikan Ke Register</t>
   </si>
 </sst>
 </file>
@@ -228,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -255,6 +258,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -565,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653A54F0-D01B-49C0-BB41-F0FC7D2164BA}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -583,7 +589,7 @@
     <col min="10" max="10" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
@@ -636,16 +642,16 @@
         <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="102" x14ac:dyDescent="0.25">
@@ -653,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G2" s="4">
         <v>37370</v>
@@ -674,7 +680,7 @@
         <v>12</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>15</v>
@@ -685,17 +691,17 @@
       <c r="L2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="9">
-        <v>6500</v>
+      <c r="M2" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="T2" s="9"/>
     </row>
@@ -711,7 +717,7 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,7 +734,7 @@
     <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.140625" style="1" bestFit="1" customWidth="1"/>
@@ -782,16 +788,16 @@
         <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA1" s="1"/>
     </row>
@@ -800,19 +806,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G2" s="4">
         <v>37370</v>
@@ -821,7 +827,7 @@
         <v>12</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>15</v>
@@ -832,17 +838,17 @@
       <c r="L2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="9">
-        <v>6500</v>
+      <c r="M2" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="S2" s="7"/>
       <c r="T2" s="2"/>
@@ -858,7 +864,7 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,7 +881,7 @@
     <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -929,16 +935,16 @@
         <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA1" s="1"/>
     </row>
@@ -947,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G2" s="4">
         <v>37370</v>
@@ -968,7 +974,7 @@
         <v>12</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>15</v>
@@ -979,17 +985,17 @@
       <c r="L2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="9">
-        <v>6500</v>
+      <c r="M2" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="N2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="P2" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S2" s="7"/>
       <c r="T2" s="2"/>
